--- a/biology/Zoologie/Demansia_calodera/Demansia_calodera.xlsx
+++ b/biology/Zoologie/Demansia_calodera/Demansia_calodera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Demansia calodera est une espèce de serpents de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Demansia calodera est une espèce de serpents de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale[2]. Elle se rencontre de la baie Shark à Exmouth.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale. Elle se rencontre de la baie Shark à Exmouth.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Demansia calodera[2], une femelle adulte, mesure 416 mm dont 100 mm pour la queue. Son dos est brun jaune clair et présente un collier sombre surligné de clair. Sa face ventrale est crème.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Demansia calodera, une femelle adulte, mesure 416 mm dont 100 mm pour la queue. Son dos est brun jaune clair et présente un collier sombre surligné de clair. Sa face ventrale est crème.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du grec ancien καλός, kalós, « beau », et δειρη, deire, « cou », fait référence à sa collier[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du grec ancien καλός, kalós, « beau », et δειρη, deire, « cou », fait référence à sa collier.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Storr, 1978 : Whip snakes (Demansia, Elapidae) of Western Australia. Records of the Western Australian Museum, vol. 6, n. 3, p. 287-301 (texte intégral).</t>
         </is>
